--- a/approaches/evaluation_logs/Gen1/test-50-evaluation_log-vLLM_kosbu-Llama-3.3-70B-Instruct-AWQ-2025-04-22-0354.xlsx
+++ b/approaches/evaluation_logs/Gen1/test-50-evaluation_log-vLLM_kosbu-Llama-3.3-70B-Instruct-AWQ-2025-04-22-0354.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,45 +496,55 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Correct Extracted Predicates with Parents</t>
+          <t>Detected Predicates Doc Parent</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Correct Extracted Predicates with Related</t>
+          <t>Detected Predicates Doc Related</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Correct Pred Predicates Parents</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Correct Pred Predicates Related</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Extracted Objects</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Gold Standard Objects</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Correct Extracted Objects</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Extracted Entities</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Gold Standard Entities</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Correct Extracted Entities</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Result String</t>
         </is>
@@ -584,24 +594,30 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q25095540&gt; &lt;http://www.wikidata.org/prop/direct/P86&gt; &lt;http://www.wikidata.org/entity/Q1516254&gt; .
@@ -656,24 +672,30 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>3</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 @prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
@@ -728,24 +750,30 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
         <v>5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
       <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" t="n">
         <v>6</v>
       </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q466774&gt; &lt;http://www.wikidata.org/entity/P108&gt; &lt;http://www.wikidata.org/entity/Q273626&gt; .
@@ -799,24 +827,30 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
       </c>
       <c r="R5" t="n">
         <v>6</v>
       </c>
       <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6</v>
+      </c>
+      <c r="U5" t="n">
         <v>7</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>5</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q72697912&gt; &lt;http://www.wikidata.org/prop/direct/P840&gt; &lt;http://www.wikidata.org/entity/Q1993848&gt; .
@@ -877,24 +911,30 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>5</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
       <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
         <v>6</v>
       </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q36771&gt; &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q29999&gt; .
@@ -951,24 +991,30 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
       <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
         <v>5</v>
       </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q506252&gt; &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q11707&gt; .
@@ -1025,24 +1071,30 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2226643&gt; &lt;http://www.wikidata.org/prop/direct/P138&gt; &lt;http://www.wikidata.org/entity/Q28937&gt; .
@@ -1099,24 +1151,30 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
         <v>6</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
       <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
         <v>7</v>
       </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2808&gt; &lt;http://www.wikidata.org/prop/direct/P175&gt; &lt;http://www.wikidata.org/entity/Q2601034&gt; .
@@ -1176,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
         <v>3</v>
@@ -1185,12 +1243,18 @@
         <v>7</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7</v>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q6782514&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q1364658&gt; .
@@ -1248,24 +1312,30 @@
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
       <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
         <v>6</v>
       </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 @prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
@@ -1321,24 +1391,30 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
       <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
         <v>6</v>
       </c>
-      <c r="T12" t="n">
-        <v>4</v>
-      </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="n">
+        <v>4</v>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q5395743&gt; &lt;http://www.wikidata.org/prop/direct/P407&gt; &lt;http://www.wikidata.org/entity/Q1321&gt; .
@@ -1394,24 +1470,30 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>3</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q271108&gt; &lt;http://www.wikidata.org/prop/direct/P607&gt; &lt;http://www.wikidata.org/entity/Q516760&gt; .
@@ -1467,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -1476,12 +1558,18 @@
         <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
         <v>3</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q7992209&gt; &lt;http://www.wikidata.org/entity/P4661&gt; &lt;http://www.wikidata.org/entity/Q3561541&gt; .
@@ -1534,24 +1622,30 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
         <v>4</v>
       </c>
       <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
+      </c>
+      <c r="U15" t="n">
         <v>5</v>
       </c>
-      <c r="T15" t="n">
-        <v>2</v>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q568973&gt; &lt;http://www.wikidata.org/prop/direct/P131&gt; &lt;http://www.wikidata.org/entity/Q183&gt; .
@@ -1612,24 +1706,30 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q3311362&gt; &lt;http://www.wikidata.org/prop/direct/P131&gt; &lt;http://www.wikidata.org/entity/Q66117&gt; .
@@ -1681,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
@@ -1693,12 +1793,18 @@
         <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>3</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q7044514&gt; &lt;http://www.wikidata.org/prop/direct/P175&gt; &lt;http://www.wikidata.org/entity/Q234199&gt; .
@@ -1751,24 +1857,30 @@
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
         <v>4</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q607380&gt; &lt;http://www.wikidata.org/entity/P183&gt; &lt;http://www.wikidata.org/entity/Q664&gt; .
@@ -1825,24 +1937,30 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>5</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q5686841&gt; &lt;http://www.wikidata.org/entity/P206&gt; &lt;http://www.wikidata.org/entity/Q794&gt; .
@@ -1904,21 +2022,27 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t>Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8225 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}</t>
         </is>
@@ -1968,24 +2092,30 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U21" t="n">
+        <v>8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6</v>
+      </c>
+      <c r="W21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q3048624&gt; &lt;http://www.wikidata.org/prop/direct/P27&gt; &lt;http://www.wikidata.org/entity/Q16&gt; .
@@ -2053,15 +2183,21 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q17052475&gt; &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q11348&gt; .
@@ -2114,24 +2250,30 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
         <v>4</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q18036690&gt; &lt;http://www.wikidata.org/prop/direct/P1057&gt; &lt;http://www.wikidata.org/entity/Q430258&gt; .
@@ -2188,24 +2330,30 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="n">
         <v>5</v>
       </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3</v>
-      </c>
-      <c r="U24" t="inlineStr">
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 @prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
@@ -2262,24 +2410,30 @@
         <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
         <v>4</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q5554167&gt; &lt;http://www.wikidata.org/entity/P162&gt; &lt;http://www.wikidata.org/entity/Q16239205&gt; .
@@ -2336,21 +2490,27 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>7</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>7</v>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="inlineStr">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q62066211&gt; &lt;http://www.wikidata.org/prop/direct/P131&gt; &lt;http://www.wikidata.org/entity/Q664&gt; .
@@ -2410,24 +2570,30 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
         <v>5</v>
       </c>
-      <c r="T27" t="n">
-        <v>3</v>
-      </c>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="n">
+        <v>3</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2094579&gt; &lt;http://www.wikidata.org/entity/P58&gt; &lt;http://www.wikidata.org/entity/Q5546527&gt; .
@@ -2480,24 +2646,30 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
         <v>3</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q22082365&gt; &lt;http://www.wikidata.org/prop/direct/P131&gt; &lt;http://www.wikidata.org/entity/Q965&gt; .
@@ -2550,24 +2722,30 @@
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>5</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q16926803&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q2060470&gt; .
@@ -2629,21 +2807,27 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>5</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="inlineStr">
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8399 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}</t>
         </is>
@@ -2693,24 +2877,30 @@
         <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>4</v>
-      </c>
-      <c r="U31" t="inlineStr">
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t xml:space="preserve">
 @prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
@@ -2771,24 +2961,30 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>3</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q64876878&gt; &lt;http://www.wikidata.org/prop/direct/P725&gt; &lt;http://www.wikidata.org/entity/Q262170&gt; .
@@ -2842,10 +3038,10 @@
         <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>5</v>
@@ -2854,12 +3050,18 @@
         <v>6</v>
       </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T33" t="n">
         <v>6</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="U33" t="n">
+        <v>7</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q1240173&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q1088790&gt; .
@@ -2927,15 +3129,21 @@
         <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
         <v>4</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q822946&gt; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q1366759&gt; .
@@ -2989,24 +3197,30 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q41792848&gt; &lt;http://www.wikidata.org/entity/P2515&gt; &lt;http://www.wikidata.org/entity/Q5072388&gt; .
@@ -3059,24 +3273,30 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
-      </c>
-      <c r="U36" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q1490434&gt; &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q41298&gt; .
@@ -3139,15 +3359,21 @@
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
         <v>4</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4</v>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2616869&gt; &lt;http://www.wikidata.org/entity/P1433&gt; &lt;http://www.wikidata.org/entity/Q1126800&gt; .
@@ -3201,24 +3427,30 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="n">
         <v>5</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>5</v>
       </c>
-      <c r="T38" t="n">
-        <v>4</v>
-      </c>
-      <c r="U38" t="inlineStr">
+      <c r="V38" t="n">
+        <v>4</v>
+      </c>
+      <c r="W38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q6803534&gt; &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q1320721&gt; .
@@ -3276,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3288,12 +3520,18 @@
         <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>2</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q907827&gt; &lt;http://www.wikidata.org/prop/direct/P30&gt; &lt;http://www.wikidata.org/entity/Q183&gt; .
@@ -3345,24 +3583,30 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
-      </c>
-      <c r="U40" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="inlineStr">
         <is>
           <t xml:space="preserve">
 @prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
@@ -3430,15 +3674,21 @@
         <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
         <v>3</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3</v>
+      </c>
+      <c r="W41" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q47554&gt; &lt;http://www.wikidata.org/entity/P1376&gt; &lt;http://www.wikidata.org/entity/Q54153&gt; .
@@ -3485,30 +3735,36 @@
         <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
         <v>4</v>
       </c>
       <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
         <v>6</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>6</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>5</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>7</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>7</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>6</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q54322348&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q16568&gt; .
@@ -3565,24 +3821,30 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
         <v>3</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3</v>
+      </c>
+      <c r="W43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 @prefix wd: &lt;http://www.wikidata.org/entity/&gt; .
@@ -3639,24 +3901,30 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
         <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
-      </c>
-      <c r="U44" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q29644512&gt; &lt;http://www.wikidata.org/entity/Q152074&gt; &lt;http://www.wikidata.org/entity/Q29644512&gt; .
@@ -3709,24 +3977,30 @@
         <v>4</v>
       </c>
       <c r="O45" t="n">
+        <v>4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
         <v>6</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>9</v>
       </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="n">
         <v>7</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>10</v>
       </c>
-      <c r="T45" t="n">
-        <v>4</v>
-      </c>
-      <c r="U45" t="inlineStr">
+      <c r="V45" t="n">
+        <v>4</v>
+      </c>
+      <c r="W45" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q5288565&gt; &lt;http://www.wikidata.org/entity/P495&gt; &lt;http://www.wikidata.org/entity/Q258&gt; .
@@ -3787,24 +4061,30 @@
         <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
         <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
         <v>4</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4</v>
+      </c>
+      <c r="W46" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q92560&gt; &lt;http://www.wikidata.org/entity/P136&gt; &lt;http://www.wikidata.org/entity/Q231302&gt; .
@@ -3861,21 +4141,27 @@
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>2</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q18036732&gt; &lt;http://www.wikidata.org/entity/P1057&gt; &lt;http://www.wikidata.org/entity/Q753805&gt; .
@@ -3931,24 +4217,30 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
         <v>3</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q977911&gt; &lt;http://www.wikidata.org/prop/direct/P131&gt; &lt;http://www.wikidata.org/entity/Q112686&gt; .
@@ -4006,21 +4298,27 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
         <v>6</v>
       </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
       <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
         <v>7</v>
       </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="inlineStr">
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="inlineStr">
         <is>
           <t>Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8196 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}</t>
         </is>
@@ -4070,24 +4368,30 @@
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
         <v>4</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4</v>
+      </c>
+      <c r="W50" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2822458&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q649&gt; .
@@ -4141,24 +4445,30 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2</v>
+      </c>
+      <c r="W51" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2362697&gt; &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q503601&gt; .
